--- a/MainTop/19.12.2025 имена/19.12.2025 имена.xlsx
+++ b/MainTop/19.12.2025 имена/19.12.2025 имена.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxim\Documents\GitHub\Ozon_upload\MainTop\19.12.2025 имена\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Max\Documents\GitHub\Ozon_upload\MainTop\19.12.2025 имена\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89207104-5922-4210-9CB6-CE371FC7A91B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{373521B1-736A-416C-AA0E-C3001A4D7709}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -222,10 +222,10 @@
     <t>OZN1302407725</t>
   </si>
   <si>
-    <t>штриход</t>
-  </si>
-  <si>
-    <t>артикул</t>
+    <t>штрихкод</t>
+  </si>
+  <si>
+    <t>Артикул</t>
   </si>
 </sst>
 </file>
@@ -546,7 +546,7 @@
   <dimension ref="A1:B151"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
